--- a/Doc/ExcelConfig/Datas/抽奖/DrawTreasureConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/抽奖/DrawTreasureConfig.xlsx
@@ -91,8 +91,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -119,11 +119,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,36 +203,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -173,77 +244,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,19 +270,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,133 +396,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,45 +449,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,6 +468,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -521,11 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,7 +567,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,124 +576,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1143,8 +1143,8 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="6">
-        <v>1</v>
+      <c r="B4" s="11">
+        <v>10013</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -1153,14 +1153,16 @@
         <v>100</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <v>10</v>
+      </c>
       <c r="G4" s="3">
         <v>10001</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="11">
-        <v>2</v>
+        <v>10014</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -1168,9 +1170,7 @@
       <c r="D5" s="6">
         <v>100</v>
       </c>
-      <c r="E5" s="6">
-        <v>3200</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6">
         <v>10</v>
       </c>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="11">
-        <v>3</v>
+        <v>10015</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="11">
-        <v>4</v>
+        <v>10016</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -1224,192 +1224,192 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="11"/>
+      <c r="B12" s="3"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
